--- a/datafiles/flavorMgtData.xlsx
+++ b/datafiles/flavorMgtData.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="creFlavor" sheetId="30" r:id="rId1"/>
-    <sheet name="putSysDisk" sheetId="31" r:id="rId2"/>
+    <sheet name="getFlavor" sheetId="31" r:id="rId2"/>
+    <sheet name="editFlavor" sheetId="32" r:id="rId3"/>
+    <sheet name="delFlavor" sheetId="33" r:id="rId4"/>
+    <sheet name="searchFlavor" sheetId="34" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
   <si>
     <t>test_num</t>
   </si>
@@ -188,7 +191,7 @@
     <t>008</t>
   </si>
   <si>
-    <t>规格管理-新建规格-CPU大于257</t>
+    <t>规格管理-新建规格-CPU大于256</t>
   </si>
   <si>
     <t>{
@@ -417,158 +420,113 @@
 }</t>
   </si>
   <si>
-    <t>编辑系统盘-name为空</t>
+    <t>规格管理-获取规格-缺少token</t>
   </si>
   <si>
     <t>{
-    "name":"",
-    "description":"编辑系统盘-name为空",
-    "store_type":1
+    "page":"1",
+    "size":"10",
+    "order":"1",
+    "sort":"cpu"
 }</t>
   </si>
   <si>
-    <t>请求参数错误</t>
-  </si>
-  <si>
-    <t>编辑系统盘-name为特殊字符</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"@￥@#%￥#%￥",
-    "description":"编辑系统盘-name为特殊字符",
-    "store_type":1
+    <t>规格管理-获取规格-成功</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-缺少token</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-成功</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-重名</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-名称为空</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-名称大于32个字符</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU为空</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU小于1</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU大于256</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU为汉字</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU为特殊字符</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU为小数</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-CPU为负数</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存为空</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存小于1</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存大于4096</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存为汉字</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存为特殊字符</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存为小数</t>
+  </si>
+  <si>
+    <t>规格管理-编辑规格-内存为负数</t>
+  </si>
+  <si>
+    <t>规格管理-删除规格-缺少token</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[
+        "623b0c20-a3d8-4353-9ee0-e16c1ffcf7e6"
+    ]
 }</t>
   </si>
   <si>
-    <t>云硬盘名称只能输入字母、数字、汉字、横线以及下划线</t>
-  </si>
-  <si>
-    <t>编辑系统盘-name为中文名称</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"中文名称系统盘",
-    "description":"编辑系统盘-name为中文名称"
+    <t>规格管理-删除规格-id不存在</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[
+        "11111111-1111-1111-1111-111111111111"
+    ]
 }</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>编辑系统盘-name为数字</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"123456",
-    "description":"编辑系统盘-name为数字",
-    "store_type":1
+    <t>id不存在</t>
+  </si>
+  <si>
+    <t>规格管理-删除规格-成功</t>
+  </si>
+  <si>
+    <t>规格管理-查询规格-缺少token</t>
+  </si>
+  <si>
+    <t>{
+    "page":"1",
+    "size":"10"
 }</t>
   </si>
   <si>
-    <t>编辑系统盘-name为下划线</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"______",
-    "description":"编辑系统盘-name为下划线"
-}</t>
-  </si>
-  <si>
-    <t>编辑系统盘-name为短横线</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"-----",
-    "description":"编辑系统盘-name为下划线",
-    "store_type":1
-}</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>编辑系统盘-name超过32个字符</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"SysnameIsOver32SysnameIsOve32SysnameOver32",
-    "description":"编辑系统盘-name超过32个字符",
-    "store_type":1
-}</t>
-  </si>
-  <si>
-    <t>系统盘名称过长</t>
-  </si>
-  <si>
-    <t>编辑系统盘-name等于32个字符</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"SysnameIs32SysnameIs32SysnameH32",
-    "description":"编辑系统盘-name等于32个字符",
-    "store_type":1
-}</t>
-  </si>
-  <si>
-    <t>查看云硬盘列表-缺少token</t>
-  </si>
-  <si>
-    <t>{
-"storage_limit":10,
-"add_size":0,    "project_id":"f9d31e23e30c41b1a42d53ef95c8dec6"
-}</t>
-  </si>
-  <si>
-    <t>缺少认证信息</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>编辑系统盘-Des大于100个字符</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"SysDesIsOver100Chars",
-    "description":"DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%",
-    "store_type":1
-}</t>
-  </si>
-  <si>
-    <t>编辑系统盘-Des等于100个字符</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"SysDesIs100Chars",
-    "description":"DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%",
-    "store_type":1
-}</t>
-  </si>
-  <si>
-    <t>编辑系统盘-Des为空</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"SysDesIsNull",
-    "description":"",
-    "store_type":1
-}</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>编辑系统盘-Des为单个字符</t>
-  </si>
-  <si>
-    <t>{   
-    "name":"SysDesIs1Char",
-    "description":"A",
-    "store_type":1
-}</t>
+    <t>规格管理-查询规格-成功</t>
   </si>
 </sst>
 </file>
@@ -747,18 +705,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1080,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,16 +1044,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1113,52 +1065,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1167,16 +1119,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,37 +1143,34 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1228,12 +1180,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1">
@@ -1244,15 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
@@ -1613,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1624,75 +1570,78 @@
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>218000</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F4">
@@ -1700,275 +1649,275 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" ht="108" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>1001</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="2">
         <v>1001</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>1001</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2">
         <v>1001</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" ht="67.5" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="2">
         <v>1001</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="2">
         <v>1001</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="2">
         <v>1001</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="2">
         <v>1001</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1981,298 +1930,620 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="81" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="81" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
-    <col min="5" max="5" width="52.5" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="2">
-        <v>214024</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>218000</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" customFormat="1" ht="108" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="67.5" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200200</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>72</v>
+      <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="54" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="108" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2">
-        <v>214030</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="135" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="121.5" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datafiles/flavorMgtData.xlsx
+++ b/datafiles/flavorMgtData.xlsx
@@ -70,7 +70,7 @@
 }</t>
   </si>
   <si>
-    <t>缺少token</t>
+    <t>缺少认证信息</t>
   </si>
   <si>
     <t>002</t>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1601,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1974,7 +1974,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -2010,7 +2010,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2051,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -2383,7 +2383,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2424,7 +2424,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2521,7 +2521,7 @@
         <v>94</v>
       </c>
       <c r="D2" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>

--- a/datafiles/flavorMgtData.xlsx
+++ b/datafiles/flavorMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="creFlavor" sheetId="30" r:id="rId1"/>
@@ -1559,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2479,7 +2479,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
